--- a/data/news_and_keyword/kosdaq/나노.xlsx
+++ b/data/news_and_keyword/kosdaq/나노.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-07-12 09:40:00</t>
+          <t>2024-07-29 14:18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>섬유 제조기업 레몬, 장초반 강세‥25%↑</t>
+          <t>씨엠에스, 전력효율화 필수품…'연간 180톤 규모' 전력반도체 필...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['섬유', '제조기업', '레몬', '장초반']</t>
+          <t>['씨엠에스', '전력효율화', '180톤', '규모', '전력반도체']</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -494,43 +494,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-05-31 05:26:00</t>
+          <t>2024-07-12 09:40:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>신소재, 주가 4.24% 상승...기관투자자 이틀 연속 매수</t>
+          <t>섬유 제조기업 레몬, 장초반 강세‥25%↑</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['신소재', '주가', '상승', '기관투자자', '이틀']</t>
+          <t>['섬유', '제조기업', '레몬', '장초반']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-05-14 13:52:00</t>
+          <t>2024-05-31 05:26:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>엔텍, 175억 원 규모 3자배정 유상증자 결정 소식에 강세</t>
+          <t>신소재, 주가 4.24% 상승...기관투자자 이틀 연속 매수</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['엔텍', '175억', '원', '규모', '3자배정']</t>
+          <t>['신소재', '주가', '상승', '기관투자자', '이틀']</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -546,17 +546,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-05-14 10:34:00</t>
+          <t>2024-05-14 13:52:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>엔텍, 175억원 유상증자 소식에…20% 가까이 '껑충'</t>
+          <t>엔텍, 175억 원 규모 3자배정 유상증자 결정 소식에 강세</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['엔텍', '175억원', '유상증자', '가까이']</t>
+          <t>['엔텍', '175억', '원', '규모', '3자배정']</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -572,17 +572,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-05-14 09:24:00</t>
+          <t>2024-05-14 10:34:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>엔텍 175억원 규모 자금 조달에 강세</t>
+          <t>엔텍, 175억원 유상증자 소식에…20% 가까이 '껑충'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['엔텍', '175억원', '규모', '자금', '조달에']</t>
+          <t>['엔텍', '175억원', '유상증자', '가까이']</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -598,17 +598,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-05-14 09:10:00</t>
+          <t>2024-05-14 09:24:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>엔텍 유상증자 소식에 강세↑</t>
+          <t>엔텍 175억원 규모 자금 조달에 강세</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['엔텍', '유상증자', '소식에']</t>
+          <t>['엔텍', '175억원', '규모', '자금', '조달에']</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -624,17 +624,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-05-10 13:58:00</t>
+          <t>2024-05-14 09:10:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>씨엠에스, AI 데이터센터 전력 효율화 필수 '전력반도체'…전력...</t>
+          <t>엔텍 유상증자 소식에 강세↑</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['씨엠에스', 'AI', '데이터센터', '전력', '효율화']</t>
+          <t>['엔텍', '유상증자', '소식에']</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -650,329 +650,329 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-02-21 19:20:00</t>
+          <t>2024-05-10 13:58:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>엔텍 7.6% 하락한 4740원 마감...거래량 급감</t>
+          <t>씨엠에스, AI 데이터센터 전력 효율화 필수 '전력반도체'…전력...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['엔텍', '하락한', '4740원', '마감', '거래량']</t>
+          <t>['씨엠에스', 'AI', '데이터센터', '전력', '효율화']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1.524390243902439</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.134146341463415</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.344512195121951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-02-20 10:36:00</t>
+          <t>2024-02-21 19:20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>엔텍, 의료 파업 본격화에 ‘급등’</t>
+          <t>엔텍 7.6% 하락한 4740원 마감...거래량 급감</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['엔텍', '의료', '파업', '본격화에', '급등']</t>
+          <t>['엔텍', '하락한', '4740원', '마감', '거래량']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-2.235469448584203</v>
+        <v>-1.524390243902439</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07451564828614009</v>
+        <v>2.134146341463415</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9687034277198211</v>
+        <v>-4.344512195121951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-02-19 12:44:00</t>
+          <t>2024-02-20 10:36:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>엔텍 상한가…4000원 돌파</t>
+          <t>엔텍, 의료 파업 본격화에 ‘급등’</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['엔텍', '돌파']</t>
+          <t>['엔텍', '의료', '파업', '본격화에', '급등']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3739715781600598</v>
+        <v>-2.235469448584203</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5235602094240838</v>
+        <v>-0.07451564828614009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1495886312640239</v>
+        <v>-0.9687034277198211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-01-19 18:34:00</t>
+          <t>2024-02-19 12:44:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>캠텍 주가 13.92% 하락 부진...반등은 언제?</t>
+          <t>엔텍 상한가…4000원 돌파</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['캠텍', '주가', '하락', '부진', '반등은']</t>
+          <t>['엔텍', '돌파']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.7739938080495357</v>
+        <v>0.3739715781600598</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1547987616099071</v>
+        <v>-0.5235602094240838</v>
       </c>
       <c r="F12" t="n">
-        <v>3.869969040247678</v>
+        <v>0.1495886312640239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-01-09 09:24:00</t>
+          <t>2024-01-19 18:34:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>신소재, 4Q 실적 호조 전망에 6%대↑</t>
+          <t>캠텍 주가 13.92% 하락 부진...반등은 언제?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['신소재', '4Q', '실적', '호조', '전망에']</t>
+          <t>['캠텍', '주가', '하락', '부진', '반등은']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.8784773060029283</v>
+        <v>-0.7739938080495357</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.417276720351391</v>
+        <v>-0.1547987616099071</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.685212298682284</v>
+        <v>3.869969040247678</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-11-14 16:08:00</t>
+          <t>2024-01-09 09:24:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>브릭 주가 털썩...주가 3000원선 다시 붕괴</t>
+          <t>신소재, 4Q 실적 호조 전망에 6%대↑</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['주가', '브릭', '털썩', '3000원선', '다시']</t>
+          <t>['신소재', '4Q', '실적', '호조', '전망에']</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.398026315789474</v>
+        <v>-0.8784773060029283</v>
       </c>
       <c r="E14" t="n">
-        <v>16.11842105263158</v>
+        <v>-5.417276720351391</v>
       </c>
       <c r="F14" t="n">
-        <v>10.11513157894737</v>
+        <v>-4.685212298682284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-10-04 19:02:00</t>
+          <t>2023-11-14 16:08:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>주가 소폭 상승 마감...약세장 속 선방</t>
+          <t>브릭 주가 털썩...주가 3000원선 다시 붕괴</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['주가', '소폭', '상승', '마감', '약세장']</t>
+          <t>['주가', '브릭', '털썩', '3000원선', '다시']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-3.695491500369549</v>
+        <v>1.398026315789474</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.404286770140429</v>
+        <v>16.11842105263158</v>
       </c>
       <c r="F15" t="n">
-        <v>-10.42128603104213</v>
+        <v>10.11513157894737</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-09-25 16:16:00</t>
+          <t>2023-10-04 19:02:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>씨엠에스, 상승 '날개' 달았나?...4거래일 연속 상승세</t>
+          <t>주가 소폭 상승 마감...약세장 속 선방</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['씨엠에스', '상승', '달았나', '4거래일', '연속']</t>
+          <t>['주가', '소폭', '상승', '마감', '약세장']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-3.695491500369549</v>
       </c>
       <c r="E16" t="n">
-        <v>1.384615384615385</v>
+        <v>-1.404286770140429</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.923076923076923</v>
+        <v>-10.42128603104213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-09-05 13:52:00</t>
+          <t>2023-09-25 16:16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>엔텍, '유럽 시총1위' 노보 신규 공급사 써머피셔 OEM 파트너 부...</t>
+          <t>씨엠에스, 상승 '날개' 달았나?...4거래일 연속 상승세</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['엔텍', '시총1위', '노보', '신규', '공급사']</t>
+          <t>['씨엠에스', '상승', '달았나', '4거래일', '연속']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-3.972602739726028</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.164383561643835</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="F17" t="n">
-        <v>-14.65753424657534</v>
+        <v>-8.923076923076923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-09-04 21:18:00</t>
+          <t>2023-09-05 13:52:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>캠텍 9.49% 상승 '덩실덩실'...5일 연속 상승 행진</t>
+          <t>엔텍, '유럽 시총1위' 노보 신규 공급사 써머피셔 OEM 파트너 부...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['상승', '캠텍', '5일', '연속', '행진']</t>
+          <t>['엔텍', '시총1위', '노보', '신규', '공급사']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.06844626967830253</v>
+        <v>-3.972602739726028</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.58590006844627</v>
+        <v>-6.164383561643835</v>
       </c>
       <c r="F18" t="n">
-        <v>-9.787816563997263</v>
+        <v>-14.65753424657534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-08-03 14:08:00</t>
+          <t>2023-09-04 21:18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>브릭 上…코로나 확산세 따른 진단 키트용 소재 사업 관심</t>
+          <t>캠텍 9.49% 상승 '덩실덩실'...5일 연속 상승 행진</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['브릭', '확산세', '따른', '진단', '키트용']</t>
+          <t>['상승', '캠텍', '5일', '연속', '행진']</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-2.396166134185303</v>
+        <v>-0.06844626967830253</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.396166134185303</v>
+        <v>-4.58590006844627</v>
       </c>
       <c r="F19" t="n">
-        <v>16.77316293929713</v>
+        <v>-9.787816563997263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-07-13 09:40:00</t>
+          <t>2023-08-03 14:08:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>엔텍, 에이플러스그룹 피인수 소식에 20%대↑</t>
+          <t>브릭 上…코로나 확산세 따른 진단 키트용 소재 사업 관심</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['엔텍', '에이플러스그룹', '피인수', '소식에', '20']</t>
+          <t>['브릭', '확산세', '따른', '진단', '키트용']</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-4.377104377104377</v>
+        <v>-2.396166134185303</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.080808080808081</v>
+        <v>-2.396166134185303</v>
       </c>
       <c r="F20" t="n">
-        <v>-17.71043771043771</v>
+        <v>16.77316293929713</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-07-13 09:30:00</t>
+          <t>2023-07-13 09:40:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>엔텍, 에이플러스라이프에 피인수 ‘급등’</t>
+          <t>엔텍, 에이플러스그룹 피인수 소식에 20%대↑</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['엔텍', '에이플러스라이프에', '피인수', '급등']</t>
+          <t>['엔텍', '에이플러스그룹', '피인수', '소식에', '20']</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -988,277 +988,277 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-07-12 13:49:00</t>
+          <t>2023-07-13 09:30:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>씨엠에스, 中갈륨 수출 통제..전기차 실리콘카바이드 대체제 부각...</t>
+          <t>엔텍, 에이플러스라이프에 피인수 ‘급등’</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['씨엠에스', '中갈륨', '수출', '통제', '전기차']</t>
+          <t>['엔텍', '에이플러스라이프에', '피인수', '급등']</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.296043656207367</v>
+        <v>-4.377104377104377</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.844474761255116</v>
+        <v>-8.080808080808081</v>
       </c>
       <c r="F22" t="n">
-        <v>-16.43929058663029</v>
+        <v>-17.71043771043771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-06-09 09:20:00</t>
+          <t>2023-07-12 13:49:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>美테슬라 스페인 6조 투자 논의..스페인 자동차 부품 공장 부...</t>
+          <t>씨엠에스, 中갈륨 수출 통제..전기차 실리콘카바이드 대체제 부각...</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['스페인', '美테슬라', '6조', '투자', '논의']</t>
+          <t>['씨엠에스', '中갈륨', '수출', '통제', '전기차']</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1.347305389221557</v>
+        <v>1.296043656207367</v>
       </c>
       <c r="E23" t="n">
-        <v>-3.218562874251497</v>
+        <v>-7.844474761255116</v>
       </c>
       <c r="F23" t="n">
-        <v>13.09880239520958</v>
+        <v>-16.43929058663029</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-04-10 15:12:00</t>
+          <t>2023-06-09 09:20:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>엔텍 주가 강세···신규 글로벌 혈액제제 시장 개척</t>
+          <t>美테슬라 스페인 6조 투자 논의..스페인 자동차 부품 공장 부...</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['엔텍', '주가', '글로벌', '혈액제제', '시장']</t>
+          <t>['스페인', '美테슬라', '6조', '투자', '논의']</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1.347305389221557</v>
       </c>
       <c r="E24" t="n">
-        <v>1.583333333333333</v>
+        <v>-3.218562874251497</v>
       </c>
       <c r="F24" t="n">
-        <v>5.833333333333333</v>
+        <v>13.09880239520958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-03-30 14:36:00</t>
+          <t>2023-04-10 15:12:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>엔텍 주가 강세···FREND '시료 내 검출대상물 검출방법' 유럽...</t>
+          <t>엔텍 주가 강세···신규 글로벌 혈액제제 시장 개척</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['엔텍', '주가', '내', '검출대상물', '검출방법']</t>
+          <t>['엔텍', '주가', '글로벌', '혈액제제', '시장']</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.1689189189189189</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4.560810810810811</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>17.39864864864865</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-03-23 11:46:00</t>
+          <t>2023-03-30 14:36:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>씨엠에스 주가 강세···UAE병원에 바이러스 사멸 램프 공급 계...</t>
+          <t>엔텍 주가 강세···FREND '시료 내 검출대상물 검출방법' 유럽...</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['씨엠에스', '주가', '바이러스', '사멸', '램프']</t>
+          <t>['엔텍', '주가', '내', '검출대상물', '검출방법']</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-1.093355761143818</v>
+        <v>-0.1689189189189189</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4205214465937763</v>
+        <v>4.560810810810811</v>
       </c>
       <c r="F26" t="n">
-        <v>9.503784693019345</v>
+        <v>17.39864864864865</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-03-10 14:54:00</t>
+          <t>2023-03-23 11:46:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>씨엠에스 주가 하락···美인증기관으로부터 병원균 시험성적 ...</t>
+          <t>씨엠에스 주가 강세···UAE병원에 바이러스 사멸 램프 공급 계...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['씨엠에스', '주가', '병원균', '시험성적']</t>
+          <t>['씨엠에스', '주가', '바이러스', '사멸', '램프']</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-3.107113654946852</v>
+        <v>-1.093355761143818</v>
       </c>
       <c r="E27" t="n">
-        <v>-6.377759607522486</v>
+        <v>-0.4205214465937763</v>
       </c>
       <c r="F27" t="n">
-        <v>1.635322976287817</v>
+        <v>9.503784693019345</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-02-01 13:59:00</t>
+          <t>2023-03-10 14:54:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>엔텍, 중동지역으로 비코로나 제품 판로 확대에↑</t>
+          <t>씨엠에스 주가 하락···美인증기관으로부터 병원균 시험성적 ...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['엔텍', '중동지역으로', '비코로나', '제품', '판로']</t>
+          <t>['씨엠에스', '주가', '병원균', '시험성적']</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.872389791183294</v>
+        <v>-3.107113654946852</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.392111368909513</v>
+        <v>-6.377759607522486</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.85614849187935</v>
+        <v>1.635322976287817</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-01-16 13:27:00</t>
+          <t>2023-02-01 13:59:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>티타늄 광맥 확인 소식에 상한가</t>
+          <t>엔텍, 중동지역으로 비코로나 제품 판로 확대에↑</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['티타늄', '광맥', '확인', '소식에', '상한가']</t>
+          <t>['엔텍', '중동지역으로', '비코로나', '제품', '판로']</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.545454545454546</v>
+        <v>4.872389791183294</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.202797202797202</v>
+        <v>-1.392111368909513</v>
       </c>
       <c r="F29" t="n">
-        <v>-14.12587412587413</v>
+        <v>-1.85614849187935</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022-12-29 13:17:00</t>
+          <t>2023-01-16 13:27:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>엔텍, 中 입국자 방역강화 대책… 전원 PCR 검사 유력 소식에 강...</t>
+          <t>티타늄 광맥 확인 소식에 상한가</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['엔텍', '中', '입국자', '방역강화', '전원']</t>
+          <t>['티타늄', '광맥', '확인', '소식에', '상한가']</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4854368932038834</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="E30" t="n">
-        <v>5.825242718446602</v>
+        <v>-7.202797202797202</v>
       </c>
       <c r="F30" t="n">
-        <v>26.40776699029126</v>
+        <v>-14.12587412587413</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022-12-05 11:10:00</t>
+          <t>2022-12-29 13:17:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>엔텍, 영업이익 호조에 주가 상승세</t>
+          <t>엔텍, 中 입국자 방역강화 대책… 전원 PCR 검사 유력 소식에 강...</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['엔텍', '영업이익', '호조에', '주가', '상승세']</t>
+          <t>['엔텍', '中', '입국자', '방역강화', '전원']</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.4854368932038834</v>
       </c>
       <c r="E31" t="n">
-        <v>-4.979253112033195</v>
+        <v>5.825242718446602</v>
       </c>
       <c r="F31" t="n">
-        <v>-12.44813278008299</v>
+        <v>26.40776699029126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022-12-05 09:34:00</t>
+          <t>2022-12-05 11:10:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>엔텍 17%대 급등…호실적 지속 전망</t>
+          <t>엔텍, 영업이익 호조에 주가 상승세</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['엔텍', '17', '대', '지속', '전망']</t>
+          <t>['엔텍', '영업이익', '호조에', '주가', '상승세']</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1274,17 +1274,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022-12-05 09:24:00</t>
+          <t>2022-12-05 09:34:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>엔텍, 실적개선 전망에 주가 '강세'</t>
+          <t>엔텍 17%대 급등…호실적 지속 전망</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['엔텍', '실적개선', '전망에', '주가']</t>
+          <t>['엔텍', '17', '대', '지속', '전망']</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1300,251 +1300,251 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022-11-22 09:20:00</t>
+          <t>2022-12-05 09:24:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>씨엠에스, 바이러스 사멸램프 미국 시장 확대 소식에 7%↑</t>
+          <t>엔텍, 실적개선 전망에 주가 '강세'</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['씨엠에스', '바이러스', '사멸램프', '미국', '시장']</t>
+          <t>['엔텍', '실적개선', '전망에', '주가']</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-1.746724890829694</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4366812227074235</v>
+        <v>-4.979253112033195</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.056768558951965</v>
+        <v>-12.44813278008299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022-11-15 15:16:00</t>
+          <t>2022-11-22 09:20:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>엔텍 주가 상승···3분기 누적 매출 273억원 기록</t>
+          <t>씨엠에스, 바이러스 사멸램프 미국 시장 확대 소식에 7%↑</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['엔텍', '주가', '누적', '매출', '273억원']</t>
+          <t>['씨엠에스', '바이러스', '사멸램프', '미국', '시장']</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8264462809917356</v>
+        <v>-1.746724890829694</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.371900826446281</v>
+        <v>0.4366812227074235</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.851239669421488</v>
+        <v>-3.056768558951965</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022-10-31 13:37:00</t>
+          <t>2022-11-15 15:16:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>독일 EnBW와 33억 규모 SCR촉매 공급 계약 체결에↑</t>
+          <t>엔텍 주가 상승···3분기 누적 매출 273억원 기록</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['독일', 'EnBW와', '33억', '규모', 'SCR촉매']</t>
+          <t>['엔텍', '주가', '누적', '매출', '273억원']</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-6.741573033707865</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="E36" t="n">
-        <v>-9.363295880149813</v>
+        <v>-5.371900826446281</v>
       </c>
       <c r="F36" t="n">
-        <v>-16.85393258426966</v>
+        <v>-7.851239669421488</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022-10-20 11:05:00</t>
+          <t>2022-10-31 13:37:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>‘2차전지 핵심’ 티타늄 국내 자원 개발 본격화 추진 소식에...</t>
+          <t>독일 EnBW와 33억 규모 SCR촉매 공급 계약 체결에↑</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['2차전지', '핵심', '티타늄', '국내', '자원']</t>
+          <t>['독일', 'EnBW와', '33억', '규모', 'SCR촉매']</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-8.695652173913043</v>
+        <v>-6.741573033707865</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.043478260869565</v>
+        <v>-9.363295880149813</v>
       </c>
       <c r="F37" t="n">
-        <v>5.652173913043478</v>
+        <v>-16.85393258426966</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022-10-18 10:08:00</t>
+          <t>2022-10-20 11:05:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>엔텍, 벨기에 적십자와 혈액분석제제시스템 성능평가 진행에↑</t>
+          <t>‘2차전지 핵심’ 티타늄 국내 자원 개발 본격화 추진 소식에...</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['엔텍', '벨기에', '적십자와', '혈액분석제제시스템', '성능평가']</t>
+          <t>['2차전지', '핵심', '티타늄', '국내', '자원']</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-1.895734597156398</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="E38" t="n">
-        <v>5.687203791469194</v>
+        <v>-3.043478260869565</v>
       </c>
       <c r="F38" t="n">
-        <v>14.69194312796208</v>
+        <v>5.652173913043478</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022-10-11 13:42:00</t>
+          <t>2022-10-18 10:08:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개'</t>
+          <t>엔텍, 벨기에 적십자와 혈액분석제제시스템 성능평가 진행에↑</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['씨엠에스', '주가', '급등', '사멸램프', '성능']</t>
+          <t>['엔텍', '벨기에', '적십자와', '혈액분석제제시스템', '성능평가']</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1.470588235294118</v>
+        <v>-1.895734597156398</v>
       </c>
       <c r="E39" t="n">
-        <v>3.431372549019608</v>
+        <v>5.687203791469194</v>
       </c>
       <c r="F39" t="n">
-        <v>17.15686274509804</v>
+        <v>14.69194312796208</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022-09-29 13:36:00</t>
+          <t>2022-10-11 13:42:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>엔텍 주가, 투자자 '관심'...거래량 살펴보니</t>
+          <t>씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개'</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['엔텍', '주가', '투자자', '거래량', '살펴보니']</t>
+          <t>['씨엠에스', '주가', '급등', '사멸램프', '성능']</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-1.449275362318841</v>
+        <v>-1.470588235294118</v>
       </c>
       <c r="E40" t="n">
-        <v>4.830917874396135</v>
+        <v>3.431372549019608</v>
       </c>
       <c r="F40" t="n">
-        <v>28.98550724637681</v>
+        <v>17.15686274509804</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022-09-27 10:44:00</t>
+          <t>2022-09-29 13:36:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>신소재, 3분기 시장 예상치 상회 전망에 5%대 강세</t>
+          <t>엔텍 주가, 투자자 '관심'...거래량 살펴보니</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['신소재', '3분기', '시장', '예상치', '상회']</t>
+          <t>['엔텍', '주가', '투자자', '거래량', '살펴보니']</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-8.035714285714286</v>
+        <v>-1.449275362318841</v>
       </c>
       <c r="E41" t="n">
-        <v>-4.464285714285714</v>
+        <v>4.830917874396135</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4464285714285714</v>
+        <v>28.98550724637681</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022-09-08 13:50:00</t>
+          <t>2022-09-27 10:44:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>주가 급등세... 이유는?</t>
+          <t>신소재, 3분기 시장 예상치 상회 전망에 5%대 강세</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['주가', '급등세', '이유는']</t>
+          <t>['신소재', '3분기', '시장', '예상치', '상회']</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5.923344947735192</v>
+        <v>-8.035714285714286</v>
       </c>
       <c r="E42" t="n">
-        <v>-13.93728222996516</v>
+        <v>-4.464285714285714</v>
       </c>
       <c r="F42" t="n">
-        <v>-29.96515679442508</v>
+        <v>-0.4464285714285714</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022-09-08 13:46:00</t>
+          <t>2022-09-08 13:50:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>주가 급등 후 상한가 달성…배경은?</t>
+          <t>주가 급등세... 이유는?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['주가', '급등', '후', '상한가']</t>
+          <t>['주가', '급등세', '이유는']</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1560,43 +1560,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022-09-06 14:28:00</t>
+          <t>2022-09-08 13:46:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>엔텍, 세포 유전자치료제 시장 본격 진출로 강세</t>
+          <t>주가 급등 후 상한가 달성…배경은?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['엔텍', '세포', '유전자치료제', '시장', '본격']</t>
+          <t>['주가', '급등', '후', '상한가']</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-3.070175438596491</v>
+        <v>5.923344947735192</v>
       </c>
       <c r="E44" t="n">
-        <v>19.73684210526316</v>
+        <v>-13.93728222996516</v>
       </c>
       <c r="F44" t="n">
-        <v>-4.824561403508771</v>
+        <v>-29.96515679442508</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022-09-06 11:10:00</t>
+          <t>2022-09-06 14:28:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>엔텍 주가, 전일 상한가 이어 '급등' 강세</t>
+          <t>엔텍, 세포 유전자치료제 시장 본격 진출로 강세</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['엔텍', '주가', '전일', '상한가', '이어']</t>
+          <t>['엔텍', '세포', '유전자치료제', '시장', '본격']</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1612,17 +1612,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022-09-06 10:09:00</t>
+          <t>2022-09-06 11:10:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>씨엠에스, '전기차 핵심' SiC 전력 반도체 시장 진출 소식에 '상...</t>
+          <t>엔텍 주가, 전일 상한가 이어 '급등' 강세</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['씨엠에스', '핵심', 'SiC', '전력', '반도체']</t>
+          <t>['엔텍', '주가', '전일', '상한가', '이어']</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1638,17 +1638,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022-09-06 09:32:00</t>
+          <t>2022-09-06 10:09:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>엔텍 주가 '강세'...배경은?</t>
+          <t>씨엠에스, '전기차 핵심' SiC 전력 반도체 시장 진출 소식에 '상...</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['엔텍', '주가', '배경은']</t>
+          <t>['씨엠에스', '핵심', 'SiC', '전력', '반도체']</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1664,43 +1664,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022-08-26 11:10:00</t>
+          <t>2022-09-06 09:32:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>신소재 주가 상승배경 '관심'…거래량 170% 상승</t>
+          <t>엔텍 주가 '강세'...배경은?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['신소재', '주가', '상승배경', '170', '상승']</t>
+          <t>['엔텍', '주가', '배경은']</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-2.192982456140351</v>
+        <v>-3.070175438596491</v>
       </c>
       <c r="E48" t="n">
-        <v>1.31578947368421</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.754385964912281</v>
+        <v>-4.824561403508771</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022-08-26 10:10:00</t>
+          <t>2022-08-26 11:10:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>신소재, 미국 공장 설립 소식에 상승 '훨훨'</t>
+          <t>신소재 주가 상승배경 '관심'…거래량 170% 상승</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['신소재', '미국', '공장', '설립', '소식에']</t>
+          <t>['신소재', '주가', '상승배경', '170', '상승']</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1716,52 +1716,78 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-08-17 12:52:00</t>
+          <t>2022-08-26 10:10:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>씨엠에스, 한국조폐공사와 공급 계약 소식에 '관심'...주가는?</t>
+          <t>신소재, 미국 공장 설립 소식에 상승 '훨훨'</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['씨엠에스', '한국조폐공사와', '공급', '계약', '소식에']</t>
+          <t>['신소재', '미국', '공장', '설립', '소식에']</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-1.716738197424893</v>
+        <v>-2.192982456140351</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.721030042918455</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="F50" t="n">
-        <v>13.30472103004292</v>
+        <v>-1.754385964912281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>2022-08-17 12:52:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>씨엠에스, 한국조폐공사와 공급 계약 소식에 '관심'...주가는?</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['씨엠에스', '한국조폐공사와', '공급', '계약', '소식에']</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>-1.716738197424893</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-4.721030042918455</v>
+      </c>
+      <c r="F51" t="n">
+        <v>13.30472103004292</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>2022-08-04 15:28:00</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>관련주 씨엠에스, 장 마감 앞두고 주가 '내림세'…이유가?</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>['관련주', '씨엠에스', '장', '마감', '앞두고']</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D52" t="n">
         <v>2.109704641350211</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E52" t="n">
         <v>2.109704641350211</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>-2.531645569620253</v>
       </c>
     </row>
